--- a/biology/Botanique/Ériogone_à_ombelle/Ériogone_à_ombelle.xlsx
+++ b/biology/Botanique/Ériogone_à_ombelle/Ériogone_à_ombelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89riogone_%C3%A0_ombelle</t>
+          <t>Ériogone_à_ombelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriogonum umbellatum est une espèce de plante de la famille des Polygonaceae, originaire de l'ouest des États-Unis et du sud-ouest du Canada.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89riogone_%C3%A0_ombelle</t>
+          <t>Ériogone_à_ombelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante basse mesure entre 10 et 30 cm de hauteur[1]. Les feuilles sont situées à la base de la plante : des ramifications ligneuses portent des paquets de pétioles minces portant les feuilles. Chaque feuille mesure entre 1 et 4 cm de longueur, a une forme ovale, environ 2 à 3 fois moins large que longue, et présente une face inférieure très velue[1].
-Appareil reproducteur
-La floraison a lieu entre juin et août.
-L'inflorescence est une ombelle en forme de balle, de 5 à 10 cm de diamètre, située à l'extrémité des tiges florales. D'une bractée part plusieurs pétioles très minces portant les fleurs. Chaque fleur mesure 6 mm de longueur[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante basse mesure entre 10 et 30 cm de hauteur. Les feuilles sont situées à la base de la plante : des ramifications ligneuses portent des paquets de pétioles minces portant les feuilles. Chaque feuille mesure entre 1 et 4 cm de longueur, a une forme ovale, environ 2 à 3 fois moins large que longue, et présente une face inférieure très velue.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89riogone_%C3%A0_ombelle</t>
+          <t>Ériogone_à_ombelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre juin et août.
+L'inflorescence est une ombelle en forme de balle, de 5 à 10 cm de diamètre, située à l'extrémité des tiges florales. D'une bractée part plusieurs pétioles très minces portant les fleurs. Chaque fleur mesure 6 mm de longueur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ériogone_à_ombelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89riogone_%C3%A0_ombelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriogonum umbellatum vit dans les zones arides des déserts, pied de relief et corniches rocheuses du sud du Canada et de l'ouest des États-Unis. Son aire de répartition s'étend du nord au sud de la Colombie-Britannique au sud de la Californie, et vers l'est, jusque sur les flancs est des montagnes Rocheuses, du Montana au Colorado.
 </t>
